--- a/output/report/temp_file.xlsx
+++ b/output/report/temp_file.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>SeriesName</t>
   </si>
@@ -69,43 +69,100 @@
     <t>6</t>
   </si>
   <si>
-    <t>Broad Money Supply M2x: Russia</t>
-  </si>
-  <si>
-    <t>Government Bonds Zero Coupon Yield: GKO-OFZ: 1 Year: Russia</t>
-  </si>
-  <si>
-    <t>Government Bonds Zero Coupon Yield: GKO-OFZ: 10 Year: Russia</t>
-  </si>
-  <si>
-    <t>Government Bonds Zero Coupon Yield: GKO-OFZ: 3 Year: Russia</t>
-  </si>
-  <si>
-    <t>MOEX Russia Index: Russia</t>
-  </si>
-  <si>
-    <t>RTS Index: Russia</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Agricultural Production: Russia</t>
+  </si>
+  <si>
+    <t>CEIC Leading Indicator: Euro Area</t>
+  </si>
+  <si>
+    <t>Construction Works Value Index: Russia</t>
+  </si>
+  <si>
+    <t>Freight Turnover: Russia</t>
+  </si>
+  <si>
+    <t>Labour Force Demand: Russia</t>
+  </si>
+  <si>
+    <t>Manufacturing PMI: Headline: sa: Russia</t>
+  </si>
+  <si>
+    <t>Paid Services Rendered to Population: Russia</t>
+  </si>
+  <si>
+    <t>Passenger Turnover: Russia</t>
+  </si>
+  <si>
+    <t>Public Catering Turnover: Russia</t>
+  </si>
+  <si>
+    <t>Real Wages: Russia</t>
+  </si>
+  <si>
+    <t>Retail Trade Turnover: Russia</t>
+  </si>
+  <si>
+    <t>Urals Crude Oil Price per 1 Barrel: Russia</t>
+  </si>
+  <si>
+    <t>Wholesale Trade Turnover: Russia</t>
   </si>
   <si>
     <t>% change (SA)</t>
   </si>
   <si>
-    <t>Diff</t>
+    <t>Diff (SA)</t>
   </si>
   <si>
     <t>% change</t>
   </si>
   <si>
-    <t>Money Market</t>
-  </si>
-  <si>
-    <t>Stocks and Bonds</t>
-  </si>
-  <si>
-    <t>The Central Bank of the Russian Federation</t>
-  </si>
-  <si>
-    <t>Moscow Exchange</t>
+    <t>Real Sector</t>
+  </si>
+  <si>
+    <t>Surveys</t>
+  </si>
+  <si>
+    <t>Labour Market</t>
+  </si>
+  <si>
+    <t>Commodity Prices</t>
+  </si>
+  <si>
+    <t>Federal State Statistics Service</t>
+  </si>
+  <si>
+    <t>CEIC Data</t>
+  </si>
+  <si>
+    <t>IHS Markit</t>
+  </si>
+  <si>
+    <t>Federal Treasury</t>
+  </si>
+  <si>
+    <t>Ministry of Finance of the Russian Federation</t>
   </si>
   <si>
     <t>Growth</t>
@@ -209,40 +266,40 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1940575296249252</v>
+        <v>0.3593465311810059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3336773693580284</v>
+        <v>0.20775376104084842</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8603801602668968</v>
+        <v>-0.15159277014015748</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0491858868441069</v>
+        <v>1.1898061954369898E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.042318561205802144</v>
+        <v>-1.8036601709621488E-5</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n" s="2">
         <v>44378.0</v>
       </c>
       <c r="L2" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
       <c r="M2" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
     </row>
     <row r="3">
@@ -250,40 +307,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03229970477470903</v>
+        <v>-1.620454332737154</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.019999999999999574</v>
+        <v>-0.2407427699999971</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.052299704774708605</v>
+        <v>1.3797115627371568</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.15880367586630045</v>
+        <v>0.016503605974685455</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008305385364946032</v>
+        <v>0.022770215990131546</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K3" t="n" s="2">
         <v>44409.0</v>
       </c>
       <c r="L3" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
       <c r="M3" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
     </row>
     <row r="4">
@@ -291,40 +348,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>0.029693648399473412</v>
+        <v>-0.31231528691218474</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1900000000000004</v>
+        <v>-0.8219838740911882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16030635160052698</v>
+        <v>-0.5096685871790034</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06081682051203021</v>
+        <v>0.009588410626686762</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009749322612227655</v>
+        <v>-0.004886911697395585</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n" s="2">
-        <v>44409.0</v>
+        <v>44378.0</v>
       </c>
       <c r="L4" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
       <c r="M4" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
     </row>
     <row r="5">
@@ -332,40 +389,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>0.10926722584576723</v>
+        <v>-0.30628822179509674</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08999999999999986</v>
+        <v>-1.4332765047176963</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.019267225845767372</v>
+        <v>-1.1269882829225994</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.11949409664526522</v>
+        <v>0.014466328145521687</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0023023197473002782</v>
+        <v>-0.01630338231691636</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K5" t="n" s="2">
-        <v>44409.0</v>
+        <v>44378.0</v>
       </c>
       <c r="L5" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
       <c r="M5" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
     </row>
     <row r="6">
@@ -373,40 +430,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4564391883055461</v>
+        <v>0.07156912838857377</v>
       </c>
       <c r="E6" t="n">
-        <v>3.9076461323901412</v>
+        <v>0.073066611654653</v>
       </c>
       <c r="F6" t="n">
-        <v>3.4512069440845954</v>
+        <v>0.0014974832660792359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002767222739123029</v>
+        <v>0.011255239197979007</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009550258333090193</v>
+        <v>1.685453235469264E-5</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n" s="2">
-        <v>44409.0</v>
+        <v>44378.0</v>
       </c>
       <c r="L6" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
       <c r="M6" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
     </row>
     <row r="7">
@@ -414,40 +471,327 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2556585833640497</v>
+        <v>0.43577843531537175</v>
       </c>
       <c r="E7" t="n">
-        <v>3.592166125381354</v>
+        <v>-1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.336507542017304</v>
+        <v>-1.4357784353153717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0028675736251023787</v>
+        <v>-0.01403266423150483</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009567681027443988</v>
+        <v>0.020147796693615987</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K7" t="n" s="2">
         <v>44409.0</v>
       </c>
       <c r="L7" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
       <c r="M7" t="n" s="2">
-        <v>44439.0</v>
+        <v>44440.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.11425693709651719</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.12937734405042534</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.24363428114694252</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.07067452971894221</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01721873824347271</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="n" s="2">
+        <v>44378.0</v>
+      </c>
+      <c r="L8" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="M8" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.7690955612788832</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.4476866230994148</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.2167821843782978</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.005463878964450161</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01211222954599246</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="n" s="2">
+        <v>44378.0</v>
+      </c>
+      <c r="L9" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="M9" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.26186399075512</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.3650610119902353</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.6269250027453555</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.020970637308558075</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0341176541607977</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="n" s="2">
+        <v>44378.0</v>
+      </c>
+      <c r="L10" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="M10" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.35737575942148114</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7894439141829679</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.43206815476148674</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00939803539009394</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.004060591809381038</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="n" s="2">
+        <v>44348.0</v>
+      </c>
+      <c r="L11" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="M11" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.16298185918270242</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.38590451170210827</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.22292265251940585</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.40493927280489794</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.09027013680294715</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="n" s="2">
+        <v>44378.0</v>
+      </c>
+      <c r="L12" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="M12" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5709709874211035</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5.778024109740883</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-6.348995097161987</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.013064629985200485</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.08294727172227337</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="n" s="2">
+        <v>44409.0</v>
+      </c>
+      <c r="L13" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="M13" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.032026652195285</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2.197265054360699</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.229291706555984</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.006336263691767231</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.01412538009860849</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="n" s="2">
+        <v>44378.0</v>
+      </c>
+      <c r="L14" t="n" s="2">
+        <v>44440.0</v>
+      </c>
+      <c r="M14" t="n" s="2">
+        <v>44440.0</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +810,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -477,10 +821,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25643439962957526</v>
+        <v>0.3264181425539251</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>44439.0</v>
+        <v>44440.0</v>
       </c>
     </row>
   </sheetData>
